--- a/examples/lib_def.xlsx
+++ b/examples/lib_def.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>display_id</t>
   </si>
@@ -97,6 +97,36 @@
   </si>
   <si>
     <t>cs0004</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Assembly method: MoClo</t>
+  </si>
+  <si>
+    <t>left_id</t>
+  </si>
+  <si>
+    <t>left_name</t>
+  </si>
+  <si>
+    <t>{key}_left</t>
+  </si>
+  <si>
+    <t>left_flank</t>
+  </si>
+  <si>
+    <t>right_id</t>
+  </si>
+  <si>
+    <t>{key}_right</t>
+  </si>
+  <si>
+    <t>right_name</t>
+  </si>
+  <si>
+    <t>right_flank</t>
   </si>
 </sst>
 </file>
@@ -414,23 +444,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -450,16 +484,31 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -480,16 +529,31 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
       </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -510,16 +574,31 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>20</v>
       </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -540,13 +619,28 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
